--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
     <t>Il1rap</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H2">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I2">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J2">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18262701237845</v>
+        <v>1.393808333333333</v>
       </c>
       <c r="N2">
-        <v>1.18262701237845</v>
+        <v>4.181425</v>
       </c>
       <c r="O2">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="P2">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="Q2">
-        <v>178.5343428664794</v>
+        <v>0.1921262574888889</v>
       </c>
       <c r="R2">
-        <v>178.5343428664794</v>
+        <v>1.7291363174</v>
       </c>
       <c r="S2">
-        <v>0.0004704730585455649</v>
+        <v>4.162133556723395E-07</v>
       </c>
       <c r="T2">
-        <v>0.0004704730585455649</v>
+        <v>4.162133556723395E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H3">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I3">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J3">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.548117209544269</v>
+        <v>9.765272666666666</v>
       </c>
       <c r="N3">
-        <v>9.548117209544269</v>
+        <v>29.295818</v>
       </c>
       <c r="O3">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435453</v>
       </c>
       <c r="P3">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435455</v>
       </c>
       <c r="Q3">
-        <v>1441.423892550665</v>
+        <v>1.346071225100444</v>
       </c>
       <c r="R3">
-        <v>1441.423892550665</v>
+        <v>12.114641025904</v>
       </c>
       <c r="S3">
-        <v>0.003798435060172902</v>
+        <v>2.916065866766982E-06</v>
       </c>
       <c r="T3">
-        <v>0.003798435060172902</v>
+        <v>2.916065866766982E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H4">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I4">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J4">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.9584472411898</v>
+        <v>7.943370666666667</v>
       </c>
       <c r="N4">
-        <v>4.9584472411898</v>
+        <v>23.830112</v>
       </c>
       <c r="O4">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439083</v>
       </c>
       <c r="P4">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439085</v>
       </c>
       <c r="Q4">
-        <v>748.548029579964</v>
+        <v>1.094935395015111</v>
       </c>
       <c r="R4">
-        <v>748.548029579964</v>
+        <v>9.854418555136</v>
       </c>
       <c r="S4">
-        <v>0.001972571076748638</v>
+        <v>2.372016927618619E-06</v>
       </c>
       <c r="T4">
-        <v>0.001972571076748638</v>
+        <v>2.37201692761862E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H5">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I5">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J5">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.68345726519315</v>
+        <v>4.317150333333333</v>
       </c>
       <c r="N5">
-        <v>3.68345726519315</v>
+        <v>12.951451</v>
       </c>
       <c r="O5">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150776</v>
       </c>
       <c r="P5">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150777</v>
       </c>
       <c r="Q5">
-        <v>556.0701856415685</v>
+        <v>0.5950875143475556</v>
       </c>
       <c r="R5">
-        <v>556.0701856415685</v>
+        <v>5.355787629128001</v>
       </c>
       <c r="S5">
-        <v>0.001465354154300967</v>
+        <v>1.289169812094173E-06</v>
       </c>
       <c r="T5">
-        <v>0.001465354154300967</v>
+        <v>1.289169812094173E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H6">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I6">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J6">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.2880191622351</v>
+        <v>71.75082300000001</v>
       </c>
       <c r="N6">
-        <v>62.2880191622351</v>
+        <v>215.252469</v>
       </c>
       <c r="O6">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390701</v>
       </c>
       <c r="P6">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390702</v>
       </c>
       <c r="Q6">
-        <v>9403.261090087171</v>
+        <v>9.890324777848003</v>
       </c>
       <c r="R6">
-        <v>9403.261090087171</v>
+        <v>89.01292300063201</v>
       </c>
       <c r="S6">
-        <v>0.02477943982275937</v>
+        <v>2.142593791333008E-05</v>
       </c>
       <c r="T6">
-        <v>0.02477943982275937</v>
+        <v>2.142593791333009E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H7">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I7">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J7">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.96822318858336</v>
+        <v>5.114546</v>
       </c>
       <c r="N7">
-        <v>4.96822318858336</v>
+        <v>15.343638</v>
       </c>
       <c r="O7">
-        <v>0.05735064972776276</v>
+        <v>0.0510001244353952</v>
       </c>
       <c r="P7">
-        <v>0.05735064972776276</v>
+        <v>0.05100012443539521</v>
       </c>
       <c r="Q7">
-        <v>750.0238476743742</v>
+        <v>0.7050026594293333</v>
       </c>
       <c r="R7">
-        <v>750.0238476743742</v>
+        <v>6.345023934864</v>
       </c>
       <c r="S7">
-        <v>0.001976460147285915</v>
+        <v>1.527284851504361E-06</v>
       </c>
       <c r="T7">
-        <v>0.001976460147285915</v>
+        <v>1.527284851504361E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H8">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I8">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J8">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.18262701237845</v>
+        <v>1.393808333333333</v>
       </c>
       <c r="N8">
-        <v>1.18262701237845</v>
+        <v>4.181425</v>
       </c>
       <c r="O8">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="P8">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="Q8">
-        <v>434.0901057417489</v>
+        <v>284.5317042279</v>
       </c>
       <c r="R8">
-        <v>434.0901057417489</v>
+        <v>2560.7853380511</v>
       </c>
       <c r="S8">
-        <v>0.001143912686229922</v>
+        <v>0.000616396201954398</v>
       </c>
       <c r="T8">
-        <v>0.001143912686229922</v>
+        <v>0.000616396201954398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H9">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I9">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J9">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.548117209544269</v>
+        <v>9.765272666666666</v>
       </c>
       <c r="N9">
-        <v>9.548117209544269</v>
+        <v>29.295818</v>
       </c>
       <c r="O9">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435453</v>
       </c>
       <c r="P9">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435455</v>
       </c>
       <c r="Q9">
-        <v>3504.691813854268</v>
+        <v>1993.480457568984</v>
       </c>
       <c r="R9">
-        <v>3504.691813854268</v>
+        <v>17941.32411812085</v>
       </c>
       <c r="S9">
-        <v>0.009235551269577071</v>
+        <v>0.004318583006593994</v>
       </c>
       <c r="T9">
-        <v>0.009235551269577071</v>
+        <v>0.004318583006593994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H10">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I10">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J10">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.9584472411898</v>
+        <v>7.943370666666667</v>
       </c>
       <c r="N10">
-        <v>4.9584472411898</v>
+        <v>23.830112</v>
       </c>
       <c r="O10">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439083</v>
       </c>
       <c r="P10">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439085</v>
       </c>
       <c r="Q10">
-        <v>1820.026825629596</v>
+        <v>1621.557813257856</v>
       </c>
       <c r="R10">
-        <v>1820.026825629596</v>
+        <v>14594.0203193207</v>
       </c>
       <c r="S10">
-        <v>0.004796128148461127</v>
+        <v>0.003512867151496899</v>
       </c>
       <c r="T10">
-        <v>0.004796128148461127</v>
+        <v>0.0035128671514969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H11">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I11">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J11">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.68345726519315</v>
+        <v>4.317150333333333</v>
       </c>
       <c r="N11">
-        <v>3.68345726519315</v>
+        <v>12.951451</v>
       </c>
       <c r="O11">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150776</v>
       </c>
       <c r="P11">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150777</v>
       </c>
       <c r="Q11">
-        <v>1352.034358260735</v>
+        <v>881.3020501991879</v>
       </c>
       <c r="R11">
-        <v>1352.034358260735</v>
+        <v>7931.718451792692</v>
       </c>
       <c r="S11">
-        <v>0.003562876080740026</v>
+        <v>0.001909211621922787</v>
       </c>
       <c r="T11">
-        <v>0.003562876080740026</v>
+        <v>0.001909211621922788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H12">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I12">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J12">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.2880191622351</v>
+        <v>71.75082300000001</v>
       </c>
       <c r="N12">
-        <v>62.2880191622351</v>
+        <v>215.252469</v>
       </c>
       <c r="O12">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390701</v>
       </c>
       <c r="P12">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390702</v>
       </c>
       <c r="Q12">
-        <v>22863.17878888948</v>
+        <v>14647.19607402577</v>
       </c>
       <c r="R12">
-        <v>22863.17878888948</v>
+        <v>131824.7646662319</v>
       </c>
       <c r="S12">
-        <v>0.06024896655836911</v>
+        <v>0.03173100183619384</v>
       </c>
       <c r="T12">
-        <v>0.06024896655836911</v>
+        <v>0.03173100183619385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H13">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I13">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J13">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.96822318858336</v>
+        <v>5.114546</v>
       </c>
       <c r="N13">
-        <v>4.96822318858336</v>
+        <v>15.343638</v>
       </c>
       <c r="O13">
-        <v>0.05735064972776276</v>
+        <v>0.0510001244353952</v>
       </c>
       <c r="P13">
-        <v>0.05735064972776276</v>
+        <v>0.05100012443539521</v>
       </c>
       <c r="Q13">
-        <v>1823.615143834219</v>
+        <v>1044.082213407144</v>
       </c>
       <c r="R13">
-        <v>1823.615143834219</v>
+        <v>9396.739920664295</v>
       </c>
       <c r="S13">
-        <v>0.004805584071695046</v>
+        <v>0.002261850968835547</v>
       </c>
       <c r="T13">
-        <v>0.004805584071695046</v>
+        <v>0.002261850968835547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H14">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I14">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J14">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.18262701237845</v>
+        <v>1.393808333333333</v>
       </c>
       <c r="N14">
-        <v>1.18262701237845</v>
+        <v>4.181425</v>
       </c>
       <c r="O14">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="P14">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="Q14">
-        <v>4567.879988160755</v>
+        <v>524.1875878320111</v>
       </c>
       <c r="R14">
-        <v>4567.879988160755</v>
+        <v>4717.688290488099</v>
       </c>
       <c r="S14">
-        <v>0.01203726092467426</v>
+        <v>0.001135575520935591</v>
       </c>
       <c r="T14">
-        <v>0.01203726092467426</v>
+        <v>0.001135575520935591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H15">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I15">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J15">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.548117209544269</v>
+        <v>9.765272666666666</v>
       </c>
       <c r="N15">
-        <v>9.548117209544269</v>
+        <v>29.295818</v>
       </c>
       <c r="O15">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435453</v>
       </c>
       <c r="P15">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435455</v>
       </c>
       <c r="Q15">
-        <v>36879.46670385501</v>
+        <v>3672.552818951819</v>
       </c>
       <c r="R15">
-        <v>36879.46670385501</v>
+        <v>33052.97537056638</v>
       </c>
       <c r="S15">
-        <v>0.09718463808763196</v>
+        <v>0.007956046990340438</v>
       </c>
       <c r="T15">
-        <v>0.09718463808763196</v>
+        <v>0.007956046990340439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H16">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I16">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J16">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.9584472411898</v>
+        <v>7.943370666666667</v>
       </c>
       <c r="N16">
-        <v>4.9584472411898</v>
+        <v>23.830112</v>
       </c>
       <c r="O16">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439083</v>
       </c>
       <c r="P16">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439085</v>
       </c>
       <c r="Q16">
-        <v>19151.93183337651</v>
+        <v>2987.366490382265</v>
       </c>
       <c r="R16">
-        <v>19151.93183337651</v>
+        <v>26886.29841344038</v>
       </c>
       <c r="S16">
-        <v>0.05046910192199538</v>
+        <v>0.00647169131297428</v>
       </c>
       <c r="T16">
-        <v>0.05046910192199538</v>
+        <v>0.006471691312974282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H17">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I17">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J17">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.68345726519315</v>
+        <v>4.317150333333333</v>
       </c>
       <c r="N17">
-        <v>3.68345726519315</v>
+        <v>12.951451</v>
       </c>
       <c r="O17">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150776</v>
       </c>
       <c r="P17">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150777</v>
       </c>
       <c r="Q17">
-        <v>14227.30121400002</v>
+        <v>1623.606750955592</v>
       </c>
       <c r="R17">
-        <v>14227.30121400002</v>
+        <v>14612.46075860033</v>
       </c>
       <c r="S17">
-        <v>0.03749173301635046</v>
+        <v>0.00351730587447982</v>
       </c>
       <c r="T17">
-        <v>0.03749173301635046</v>
+        <v>0.003517305874479822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H18">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I18">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J18">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>62.2880191622351</v>
+        <v>71.75082300000001</v>
       </c>
       <c r="N18">
-        <v>62.2880191622351</v>
+        <v>215.252469</v>
       </c>
       <c r="O18">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390701</v>
       </c>
       <c r="P18">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390702</v>
       </c>
       <c r="Q18">
-        <v>240586.5866881598</v>
+        <v>26984.26313995701</v>
       </c>
       <c r="R18">
-        <v>240586.5866881598</v>
+        <v>242858.3682596131</v>
       </c>
       <c r="S18">
-        <v>0.6339929084056806</v>
+        <v>0.0584574480272508</v>
       </c>
       <c r="T18">
-        <v>0.6339929084056806</v>
+        <v>0.05845744802725082</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>376.0829773333333</v>
+      </c>
+      <c r="H19">
+        <v>1128.248932</v>
+      </c>
+      <c r="I19">
+        <v>0.08170503466067357</v>
+      </c>
+      <c r="J19">
+        <v>0.08170503466067358</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.114546</v>
+      </c>
+      <c r="N19">
+        <v>15.343638</v>
+      </c>
+      <c r="O19">
+        <v>0.0510001244353952</v>
+      </c>
+      <c r="P19">
+        <v>0.05100012443539521</v>
+      </c>
+      <c r="Q19">
+        <v>1923.49368738829</v>
+      </c>
+      <c r="R19">
+        <v>17311.44318649462</v>
+      </c>
+      <c r="S19">
+        <v>0.00416696693469263</v>
+      </c>
+      <c r="T19">
+        <v>0.004166966934692631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H20">
+        <v>12067.582276</v>
+      </c>
+      <c r="I20">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J20">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.393808333333333</v>
+      </c>
+      <c r="N20">
+        <v>4.181425</v>
+      </c>
+      <c r="O20">
+        <v>0.01389847670528152</v>
+      </c>
+      <c r="P20">
+        <v>0.01389847670528152</v>
+      </c>
+      <c r="Q20">
+        <v>5606.632246491478</v>
+      </c>
+      <c r="R20">
+        <v>50459.6902184233</v>
+      </c>
+      <c r="S20">
+        <v>0.01214594637834925</v>
+      </c>
+      <c r="T20">
+        <v>0.01214594637834925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H21">
+        <v>12067.582276</v>
+      </c>
+      <c r="I21">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J21">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.765272666666666</v>
+      </c>
+      <c r="N21">
+        <v>29.295818</v>
+      </c>
+      <c r="O21">
+        <v>0.09737523548435453</v>
+      </c>
+      <c r="P21">
+        <v>0.09737523548435455</v>
+      </c>
+      <c r="Q21">
+        <v>39281.07711752464</v>
+      </c>
+      <c r="R21">
+        <v>353529.6940577218</v>
+      </c>
+      <c r="S21">
+        <v>0.08509669180671152</v>
+      </c>
+      <c r="T21">
+        <v>0.08509669180671153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H22">
+        <v>12067.582276</v>
+      </c>
+      <c r="I22">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J22">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.943370666666667</v>
+      </c>
+      <c r="N22">
+        <v>23.830112</v>
+      </c>
+      <c r="O22">
+        <v>0.07920798687439083</v>
+      </c>
+      <c r="P22">
+        <v>0.07920798687439085</v>
+      </c>
+      <c r="Q22">
+        <v>31952.42635625499</v>
+      </c>
+      <c r="R22">
+        <v>287571.8372062949</v>
+      </c>
+      <c r="S22">
+        <v>0.0692202449026485</v>
+      </c>
+      <c r="T22">
+        <v>0.0692202449026485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H23">
+        <v>12067.582276</v>
+      </c>
+      <c r="I23">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J23">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.317150333333333</v>
+      </c>
+      <c r="N23">
+        <v>12.951451</v>
+      </c>
+      <c r="O23">
+        <v>0.04304882666150776</v>
+      </c>
+      <c r="P23">
+        <v>0.04304882666150777</v>
+      </c>
+      <c r="Q23">
+        <v>17365.85561512028</v>
+      </c>
+      <c r="R23">
+        <v>156292.7005360825</v>
+      </c>
+      <c r="S23">
+        <v>0.03762057895760842</v>
+      </c>
+      <c r="T23">
+        <v>0.03762057895760842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H24">
+        <v>12067.582276</v>
+      </c>
+      <c r="I24">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J24">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>71.75082300000001</v>
+      </c>
+      <c r="N24">
+        <v>215.252469</v>
+      </c>
+      <c r="O24">
+        <v>0.7154693498390701</v>
+      </c>
+      <c r="P24">
+        <v>0.7154693498390702</v>
+      </c>
+      <c r="Q24">
+        <v>288619.6533077378</v>
+      </c>
+      <c r="R24">
+        <v>2597576.87976964</v>
+      </c>
+      <c r="S24">
+        <v>0.6252521440134127</v>
+      </c>
+      <c r="T24">
+        <v>0.6252521440134128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H25">
+        <v>12067.582276</v>
+      </c>
+      <c r="I25">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J25">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.114546</v>
+      </c>
+      <c r="N25">
+        <v>15.343638</v>
+      </c>
+      <c r="O25">
+        <v>0.0510001244353952</v>
+      </c>
+      <c r="P25">
+        <v>0.05100012443539521</v>
+      </c>
+      <c r="Q25">
+        <v>20573.4015531289</v>
+      </c>
+      <c r="R25">
+        <v>185160.6139781601</v>
+      </c>
+      <c r="S25">
+        <v>0.04456925674783164</v>
+      </c>
+      <c r="T25">
+        <v>0.04456925674783165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.141472</v>
+      </c>
+      <c r="I26">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J26">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.393808333333333</v>
+      </c>
+      <c r="N26">
+        <v>4.181425</v>
+      </c>
+      <c r="O26">
+        <v>0.01389847670528152</v>
+      </c>
+      <c r="P26">
+        <v>0.01389847670528152</v>
+      </c>
+      <c r="Q26">
+        <v>0.06572828417777778</v>
+      </c>
+      <c r="R26">
+        <v>0.5915545576</v>
+      </c>
+      <c r="S26">
+        <v>1.423906866129433E-07</v>
+      </c>
+      <c r="T26">
+        <v>1.423906866129433E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3862.48575446795</v>
-      </c>
-      <c r="H19">
-        <v>3862.48575446795</v>
-      </c>
-      <c r="I19">
-        <v>0.8817442478651144</v>
-      </c>
-      <c r="J19">
-        <v>0.8817442478651144</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.96822318858336</v>
-      </c>
-      <c r="N19">
-        <v>4.96822318858336</v>
-      </c>
-      <c r="O19">
-        <v>0.05735064972776276</v>
-      </c>
-      <c r="P19">
-        <v>0.05735064972776276</v>
-      </c>
-      <c r="Q19">
-        <v>19189.69129092056</v>
-      </c>
-      <c r="R19">
-        <v>19189.69129092056</v>
-      </c>
-      <c r="S19">
-        <v>0.0505686055087818</v>
-      </c>
-      <c r="T19">
-        <v>0.0505686055087818</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.141472</v>
+      </c>
+      <c r="I27">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J27">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.765272666666666</v>
+      </c>
+      <c r="N27">
+        <v>29.295818</v>
+      </c>
+      <c r="O27">
+        <v>0.09737523548435453</v>
+      </c>
+      <c r="P27">
+        <v>0.09737523548435455</v>
+      </c>
+      <c r="Q27">
+        <v>0.4605042182328888</v>
+      </c>
+      <c r="R27">
+        <v>4.144537964096</v>
+      </c>
+      <c r="S27">
+        <v>9.976148418081928E-07</v>
+      </c>
+      <c r="T27">
+        <v>9.97614841808193E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.141472</v>
+      </c>
+      <c r="I28">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J28">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>7.943370666666667</v>
+      </c>
+      <c r="N28">
+        <v>23.830112</v>
+      </c>
+      <c r="O28">
+        <v>0.07920798687439083</v>
+      </c>
+      <c r="P28">
+        <v>0.07920798687439085</v>
+      </c>
+      <c r="Q28">
+        <v>0.3745881783182222</v>
+      </c>
+      <c r="R28">
+        <v>3.371293604863999</v>
+      </c>
+      <c r="S28">
+        <v>8.114903435415771E-07</v>
+      </c>
+      <c r="T28">
+        <v>8.114903435415772E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.141472</v>
+      </c>
+      <c r="I29">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J29">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.317150333333333</v>
+      </c>
+      <c r="N29">
+        <v>12.951451</v>
+      </c>
+      <c r="O29">
+        <v>0.04304882666150776</v>
+      </c>
+      <c r="P29">
+        <v>0.04304882666150777</v>
+      </c>
+      <c r="Q29">
+        <v>0.2035852973191111</v>
+      </c>
+      <c r="R29">
+        <v>1.832267675872</v>
+      </c>
+      <c r="S29">
+        <v>4.410376846467152E-07</v>
+      </c>
+      <c r="T29">
+        <v>4.410376846467152E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.141472</v>
+      </c>
+      <c r="I30">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J30">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>71.75082300000001</v>
+      </c>
+      <c r="N30">
+        <v>215.252469</v>
+      </c>
+      <c r="O30">
+        <v>0.7154693498390701</v>
+      </c>
+      <c r="P30">
+        <v>0.7154693498390702</v>
+      </c>
+      <c r="Q30">
+        <v>3.383577477152</v>
+      </c>
+      <c r="R30">
+        <v>30.452197294368</v>
+      </c>
+      <c r="S30">
+        <v>7.330024299381501E-06</v>
+      </c>
+      <c r="T30">
+        <v>7.330024299381501E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.141472</v>
+      </c>
+      <c r="I31">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J31">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.114546</v>
+      </c>
+      <c r="N31">
+        <v>15.343638</v>
+      </c>
+      <c r="O31">
+        <v>0.0510001244353952</v>
+      </c>
+      <c r="P31">
+        <v>0.05100012443539521</v>
+      </c>
+      <c r="Q31">
+        <v>0.2411883505706666</v>
+      </c>
+      <c r="R31">
+        <v>2.170695155136</v>
+      </c>
+      <c r="S31">
+        <v>5.224991838812002E-07</v>
+      </c>
+      <c r="T31">
+        <v>5.224991838812003E-07</v>
       </c>
     </row>
   </sheetData>
